--- a/Growth stock high volume short PnL.xlsx
+++ b/Growth stock high volume short PnL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF4FE7C-25BB-43B1-BE04-778E22ECD404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3591D19-9223-4435-BCE8-D36A2C275DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>PnL</t>
   </si>
@@ -263,65 +263,68 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$20</c:f>
+              <c:f>Blad1!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>54954.879999999946</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>60928.09</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>48377.250000000029</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>33160.130000000034</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>23626.170000000053</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>22848.190000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>24016.189999999995</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>19642.429999999946</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>18388.999999999924</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>16758.879999999943</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>17739.53999999995</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>9573.5199999999459</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>4473.2899999999727</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>4364.8299999999726</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>6072.8299999999645</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>6057.899999999976</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>3565.8999999999787</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>2631.4999999999955</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>601.99999999999659</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="19" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1364,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1424,46 +1427,46 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="B2" s="6">
-        <v>0.41292824074074069</v>
+        <v>0.38548611111111114</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>255.6438</v>
+        <v>83.7</v>
       </c>
       <c r="E2" s="2">
-        <v>262.35309999999998</v>
+        <v>82.88</v>
       </c>
       <c r="F2">
-        <v>1900</v>
+        <v>7000</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G19" si="0">(E2-D2)*F2</f>
-        <v>12747.669999999971</v>
+        <f t="shared" ref="G2:G20" si="0">(E2-D2)*F2</f>
+        <v>-5740.0000000000518</v>
       </c>
       <c r="H2">
-        <f>97.14+99.69</f>
-        <v>196.82999999999998</v>
+        <f>117.18+116.03</f>
+        <v>233.21</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I19" si="1">G2-H2</f>
-        <v>12550.839999999971</v>
+        <f t="shared" ref="I2:I20" si="1">G2-H2</f>
+        <v>-5973.2100000000519</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J19" si="2">I2+J3</f>
-        <v>60928.09</v>
+        <f t="shared" ref="J2:J20" si="2">I2+J3</f>
+        <v>54954.879999999946</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K10" si="3">I2/(E2*F2)</f>
-        <v>2.5178681948709127E-2</v>
+        <f t="shared" ref="K2:K11" si="3">I2/(E2*F2)</f>
+        <v>-1.0295797710976372E-2</v>
       </c>
       <c r="M2" s="5">
-        <f>AVERAGE(K2:K19)</f>
-        <v>1.029816550026136E-2</v>
+        <f>AVERAGE(K2:K20)</f>
+        <v>9.2142726996698992E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1471,86 +1474,86 @@
         <v>44585</v>
       </c>
       <c r="B3" s="6">
-        <v>0.38829861111111108</v>
+        <v>0.41292824074074069</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>202.8646</v>
+        <v>255.6438</v>
       </c>
       <c r="E3" s="2">
-        <v>209.28749999999999</v>
+        <v>262.35309999999998</v>
       </c>
       <c r="F3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
+        <v>12747.669999999971</v>
+      </c>
+      <c r="H3">
+        <f>97.14+99.69</f>
+        <v>196.82999999999998</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>12550.839999999971</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="2"/>
+        <v>60928.09</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5178681948709127E-2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.38829861111111108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2">
+        <v>202.8646</v>
+      </c>
+      <c r="E4" s="2">
+        <v>209.28749999999999</v>
+      </c>
+      <c r="F4">
+        <v>2400</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
         <v>15414.959999999995</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <f>97.38+100.46</f>
         <v>197.83999999999997</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>15217.119999999995</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
         <v>48377.250000000029</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K4" s="4">
         <f t="shared" si="3"/>
         <v>3.0295486671046597E-2</v>
       </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44582</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.40190972222222227</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>90.546599999999998</v>
-      </c>
-      <c r="E4" s="2">
-        <v>92.49</v>
-      </c>
-      <c r="F4">
-        <v>5000</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>9716.9999999999854</v>
-      </c>
-      <c r="H4" s="2">
-        <f>92.49+90.55</f>
-        <v>183.04</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>9533.9599999999846</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="2"/>
-        <v>33160.130000000034</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="3"/>
-        <v>2.0616196345550838E-2</v>
-      </c>
       <c r="M4" s="4">
-        <f>_xlfn.STDEV.S(K2:K19)</f>
-        <v>1.3752835487116817E-2</v>
+        <f>_xlfn.STDEV.S(K2:K20)</f>
+        <v>1.4175836050579562E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -1558,86 +1561,86 @@
         <v>44582</v>
       </c>
       <c r="B5" s="6">
-        <v>0.39230324074074074</v>
+        <v>0.40190972222222227</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>56.091099999999997</v>
+        <v>90.546599999999998</v>
       </c>
       <c r="E5" s="2">
-        <v>56.2</v>
+        <v>92.49</v>
       </c>
       <c r="F5">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
+        <v>9716.9999999999854</v>
+      </c>
+      <c r="H5" s="2">
+        <f>92.49+90.55</f>
+        <v>183.04</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>9533.9599999999846</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
+        <v>33160.130000000034</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0616196345550838E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.39230324074074074</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>56.091099999999997</v>
+      </c>
+      <c r="E6" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="F6">
+        <v>9000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
         <v>980.10000000004993</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <f>101.16+100.96</f>
         <v>202.12</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>777.98000000004993</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="3">
         <f t="shared" si="2"/>
         <v>23626.170000000053</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K6" s="4">
         <f t="shared" si="3"/>
         <v>1.5381178331357254E-3</v>
       </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>44579</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.38677083333333334</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2">
-        <v>94.78</v>
-      </c>
-      <c r="E6" s="2">
-        <v>94.04</v>
-      </c>
-      <c r="F6">
-        <v>1500</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>-1109.9999999999923</v>
-      </c>
-      <c r="H6">
-        <f>29*2</f>
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>-1167.9999999999923</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="2"/>
-        <v>22848.190000000002</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="3"/>
-        <v>-8.2801644690202198E-3</v>
-      </c>
       <c r="M6" s="7">
         <f>M2/M4^2</f>
-        <v>54.44717749459884</v>
+        <v>45.852571594858155</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1645,39 +1648,39 @@
         <v>44579</v>
       </c>
       <c r="B7" s="6">
-        <v>0.39446759259259262</v>
+        <v>0.38677083333333334</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>293.60789999999997</v>
+        <v>94.78</v>
       </c>
       <c r="E7" s="2">
-        <v>298.10000000000002</v>
+        <v>94.04</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>4492.1000000000504</v>
+        <v>-1109.9999999999923</v>
       </c>
       <c r="H7">
-        <f>58.72+59.62</f>
-        <v>118.34</v>
+        <f>29*2</f>
+        <v>58</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>4373.7600000000502</v>
+        <v>-1167.9999999999923</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="2"/>
-        <v>24016.189999999995</v>
+        <v>22848.190000000002</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="3"/>
-        <v>1.4672123448507381E-2</v>
+        <v>-8.2801644690202198E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1685,119 +1688,119 @@
         <v>44579</v>
       </c>
       <c r="B8" s="6">
-        <v>0.38696759259259261</v>
+        <v>0.39446759259259262</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>97.742999999999995</v>
+        <v>293.60789999999997</v>
       </c>
       <c r="E8" s="2">
-        <v>98.2</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="F8">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
+        <v>4492.1000000000504</v>
+      </c>
+      <c r="H8">
+        <f>58.72+59.62</f>
+        <v>118.34</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4373.7600000000502</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>24016.189999999995</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4672123448507381E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.38696759259259261</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>97.742999999999995</v>
+      </c>
+      <c r="E9" s="2">
+        <v>98.2</v>
+      </c>
+      <c r="F9">
+        <v>3000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
         <v>1371.0000000000236</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <f>58.65+58.92</f>
         <v>117.57</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>1253.4300000000237</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J9" s="3">
         <f t="shared" si="2"/>
         <v>19642.429999999946</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="4">
         <f t="shared" si="3"/>
         <v>4.2546843177190211E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>44578</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="6">
         <v>0.38532407407407404</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>562.86670000000004</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>565.80930000000001</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>600</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>1765.5599999999822</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <f>67.54+67.9</f>
         <v>135.44</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>1630.1199999999822</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <f t="shared" si="2"/>
         <v>18388.999999999924</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K10" s="4">
         <f t="shared" si="3"/>
         <v>4.801735614219556E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>44575</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.57991898148148147</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
-        <v>101.05</v>
-      </c>
-      <c r="E10" s="2">
-        <v>100.6</v>
-      </c>
-      <c r="F10">
-        <v>2000</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>-900.00000000000568</v>
-      </c>
-      <c r="H10">
-        <f>40.42+40.24</f>
-        <v>80.66</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>-980.66000000000565</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="2"/>
-        <v>16758.879999999943</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="3"/>
-        <v>-4.8740556660040041E-3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1805,39 +1808,39 @@
         <v>44575</v>
       </c>
       <c r="B11" s="6">
-        <v>0.5446643518518518</v>
+        <v>0.57991898148148147</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>102.2038</v>
+        <v>101.05</v>
       </c>
       <c r="E11" s="2">
-        <v>105.95</v>
+        <v>100.6</v>
       </c>
       <c r="F11">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>8241.6400000000031</v>
+        <v>-900.00000000000568</v>
       </c>
       <c r="H11">
-        <f>29+46.62</f>
-        <v>75.62</v>
+        <f>40.42+40.24</f>
+        <v>80.66</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>8166.0200000000032</v>
+        <v>-980.66000000000565</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="2"/>
-        <v>17739.53999999995</v>
+        <v>16758.879999999943</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" ref="K11:K19" si="4">I11/(E11*F11)</f>
-        <v>3.5033763782230054E-2</v>
+        <f t="shared" si="3"/>
+        <v>-4.8740556660040041E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1845,79 +1848,79 @@
         <v>44575</v>
       </c>
       <c r="B12" s="6">
-        <v>0.41636574074074079</v>
+        <v>0.5446643518518518</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>307.92860000000002</v>
+        <v>102.2038</v>
       </c>
       <c r="E12" s="2">
-        <v>315.33929999999998</v>
+        <v>105.95</v>
       </c>
       <c r="F12">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
+        <v>8241.6400000000031</v>
+      </c>
+      <c r="H12">
+        <f>29+46.62</f>
+        <v>75.62</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>8166.0200000000032</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>17739.53999999995</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" ref="K12:K20" si="4">I12/(E12*F12)</f>
+        <v>3.5033763782230054E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.41636574074074079</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>307.92860000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>315.33929999999998</v>
+      </c>
+      <c r="F13">
+        <v>700</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
         <v>5187.4899999999743</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <f>43.11+44.15</f>
         <v>87.259999999999991</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>5100.2299999999741</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J13" s="3">
         <f t="shared" si="2"/>
         <v>9573.5199999999459</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K13" s="4">
         <f t="shared" si="4"/>
         <v>2.3105406960511488E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>44574</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.40348379629629627</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2">
-        <v>950</v>
-      </c>
-      <c r="E13" s="2">
-        <v>951</v>
-      </c>
-      <c r="F13">
-        <v>175</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="H13">
-        <f>33.25+33.29</f>
-        <v>66.539999999999992</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>108.46000000000001</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="2"/>
-        <v>4473.2899999999727</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="4"/>
-        <v>6.5170497220970415E-4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1925,79 +1928,79 @@
         <v>44574</v>
       </c>
       <c r="B14" s="6">
-        <v>0.69003472222222229</v>
+        <v>0.40348379629629627</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2">
-        <v>178</v>
+        <v>950</v>
       </c>
       <c r="E14" s="2">
-        <v>175.8</v>
+        <v>951</v>
       </c>
       <c r="F14">
-        <v>750</v>
+        <v>175</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="H14">
+        <f>33.25+33.29</f>
+        <v>66.539999999999992</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>108.46000000000001</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>4473.2899999999727</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="4"/>
+        <v>6.5170497220970415E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.69003472222222229</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>178</v>
+      </c>
+      <c r="E15" s="2">
+        <v>175.8</v>
+      </c>
+      <c r="F15">
+        <v>750</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
         <v>-1649.9999999999914</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <f>29*2</f>
         <v>58</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>-1707.9999999999914</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J15" s="3">
         <f t="shared" si="2"/>
         <v>4364.8299999999726</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K15" s="4">
         <f t="shared" si="4"/>
         <v>-1.2954114524080329E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>44568</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0.39664351851851848</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2">
-        <v>300.25</v>
-      </c>
-      <c r="E15" s="2">
-        <v>300.39999999999998</v>
-      </c>
-      <c r="F15">
-        <v>500</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>74.999999999988631</v>
-      </c>
-      <c r="H15">
-        <f>30.03+30.04</f>
-        <v>60.07</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>14.929999999988631</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="2"/>
-        <v>6072.8299999999645</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="4"/>
-        <v>9.9400798934677967E-5</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2008,36 +2011,36 @@
         <v>0.39664351851851848</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>121.75</v>
+        <v>300.25</v>
       </c>
       <c r="E16" s="2">
-        <v>124.3</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="F16">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>2549.9999999999973</v>
+        <v>74.999999999988631</v>
       </c>
       <c r="H16">
-        <f>29+29</f>
-        <v>58</v>
+        <f>30.03+30.04</f>
+        <v>60.07</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>2491.9999999999973</v>
+        <v>14.929999999988631</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="2"/>
-        <v>6057.899999999976</v>
+        <v>6072.8299999999645</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="4"/>
-        <v>2.0048270313757017E-2</v>
+        <v>9.9400798934677967E-5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -2045,138 +2048,171 @@
         <v>44568</v>
       </c>
       <c r="B17" s="6">
-        <v>0.38866898148148149</v>
+        <v>0.39664351851851848</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
-        <v>342.8</v>
+        <v>121.75</v>
       </c>
       <c r="E17" s="2">
-        <v>344.63639999999998</v>
+        <v>124.3</v>
       </c>
       <c r="F17">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
+        <v>2549.9999999999973</v>
+      </c>
+      <c r="H17">
+        <f>29+29</f>
+        <v>58</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>2491.9999999999973</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="2"/>
+        <v>6057.899999999976</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0048270313757017E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.38866898148148149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>342.8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>344.63639999999998</v>
+      </c>
+      <c r="F18">
+        <v>550</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
         <v>1010.019999999983</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <f>37.91+37.71</f>
         <v>75.62</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>934.39999999998304</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J18" s="3">
         <f t="shared" si="2"/>
         <v>3565.8999999999787</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K18" s="4">
         <f t="shared" si="4"/>
         <v>4.9295695141577042E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>44564</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B19" s="6">
         <v>0.38908564814814817</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <f>(250*133.35+500*131.5)/750</f>
         <v>132.11666666666667</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="2">
         <v>134.9</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>750</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>2087.4999999999986</v>
-      </c>
-      <c r="H18">
-        <f>29*2</f>
-        <v>58</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>2029.4999999999986</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="2"/>
-        <v>2631.4999999999955</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="4"/>
-        <v>2.0059303187546316E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>44559</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2">
-        <v>48.29</v>
-      </c>
-      <c r="E19" s="2">
-        <v>48.62</v>
-      </c>
-      <c r="F19">
-        <v>2000</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>659.99999999999659</v>
       </c>
       <c r="H19">
         <f>29*2</f>
         <v>58</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>2029.4999999999986</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="2"/>
+        <v>2631.4999999999955</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0059303187546316E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>48.29</v>
+      </c>
+      <c r="E20" s="2">
+        <v>48.62</v>
+      </c>
+      <c r="F20">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>659.99999999999659</v>
+      </c>
+      <c r="H20">
+        <f>29*2</f>
+        <v>58</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="1"/>
         <v>601.99999999999659</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="3">
         <f t="shared" si="2"/>
         <v>601.99999999999659</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="4">
         <f t="shared" si="4"/>
         <v>6.1908679555738024E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>44558</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="3"/>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="G21" s="2"/>
       <c r="I21" s="3"/>
+      <c r="J21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
@@ -2196,7 +2232,14 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Growth stock high volume short PnL.xlsx
+++ b/Growth stock high volume short PnL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3591D19-9223-4435-BCE8-D36A2C275DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A2B9EC-73AF-46E8-91C2-2D75F9C28A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>PnL</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>SAGA B</t>
+  </si>
+  <si>
+    <t>EVO</t>
   </si>
 </sst>
 </file>
@@ -263,68 +266,71 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$21</c:f>
+              <c:f>Blad1!$J$2:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>36527.160000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>54954.879999999946</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>60928.09</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>48377.250000000029</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>33160.130000000034</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>23626.170000000053</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>22848.190000000002</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>24016.189999999995</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>19642.429999999946</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>18388.999999999924</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>16758.879999999943</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>17739.53999999995</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>9573.5199999999459</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>4473.2899999999727</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>4364.8299999999726</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>6072.8299999999645</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>6057.899999999976</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>3565.8999999999787</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>2631.4999999999955</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>601.99999999999659</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="20" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1367,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1427,86 +1433,86 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.39116898148148144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1051.8435999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1015.4016</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G21" si="0">(E2-D2)*F2</f>
+        <v>-18220.999999999945</v>
+      </c>
+      <c r="H2">
+        <f>101.54+105.18</f>
+        <v>206.72000000000003</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I21" si="1">G2-H2</f>
+        <v>-18427.719999999947</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:J21" si="2">I2+J3</f>
+        <v>36527.160000000003</v>
+      </c>
+      <c r="K2" s="4">
+        <f>I2/(E2*F2)</f>
+        <v>-3.6296417102356246E-2</v>
+      </c>
+      <c r="M2" s="5">
+        <f>AVERAGE(K2:K21)</f>
+        <v>6.9387382095685915E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>44589</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B3" s="6">
         <v>0.38548611111111114</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>83.7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>82.88</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>7000</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G20" si="0">(E2-D2)*F2</f>
+      <c r="G3">
+        <f t="shared" si="0"/>
         <v>-5740.0000000000518</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <f>117.18+116.03</f>
         <v>233.21</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I20" si="1">G2-H2</f>
-        <v>-5973.2100000000519</v>
-      </c>
-      <c r="J2" s="3">
-        <f t="shared" ref="J2:J20" si="2">I2+J3</f>
-        <v>54954.879999999946</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:K11" si="3">I2/(E2*F2)</f>
-        <v>-1.0295797710976372E-2</v>
-      </c>
-      <c r="M2" s="5">
-        <f>AVERAGE(K2:K20)</f>
-        <v>9.2142726996698992E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>44585</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.41292824074074069</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2">
-        <v>255.6438</v>
-      </c>
-      <c r="E3" s="2">
-        <v>262.35309999999998</v>
-      </c>
-      <c r="F3">
-        <v>1900</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>12747.669999999971</v>
-      </c>
-      <c r="H3">
-        <f>97.14+99.69</f>
-        <v>196.82999999999998</v>
-      </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>12550.839999999971</v>
+        <v>-5973.2100000000519</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="2"/>
-        <v>60928.09</v>
+        <v>54954.879999999946</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" si="3"/>
-        <v>2.5178681948709127E-2</v>
+        <f>I3/(E3*F3)</f>
+        <v>-1.0295797710976372E-2</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
@@ -1517,83 +1523,83 @@
         <v>44585</v>
       </c>
       <c r="B4" s="6">
-        <v>0.38829861111111108</v>
+        <v>0.41292824074074069</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>202.8646</v>
+        <v>255.6438</v>
       </c>
       <c r="E4" s="2">
-        <v>209.28749999999999</v>
+        <v>262.35309999999998</v>
       </c>
       <c r="F4">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
+        <v>12747.669999999971</v>
+      </c>
+      <c r="H4">
+        <f>97.14+99.69</f>
+        <v>196.82999999999998</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>12550.839999999971</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>60928.09</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K12" si="3">I4/(E4*F4)</f>
+        <v>2.5178681948709127E-2</v>
+      </c>
+      <c r="M4" s="4">
+        <f>_xlfn.STDEV.S(K2:K21)</f>
+        <v>1.7144647225324685E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.38829861111111108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2">
+        <v>202.8646</v>
+      </c>
+      <c r="E5" s="2">
+        <v>209.28749999999999</v>
+      </c>
+      <c r="F5">
+        <v>2400</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
         <v>15414.959999999995</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <f>97.38+100.46</f>
         <v>197.83999999999997</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>15217.119999999995</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>48377.250000000029</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K5" s="4">
         <f t="shared" si="3"/>
         <v>3.0295486671046597E-2</v>
-      </c>
-      <c r="M4" s="4">
-        <f>_xlfn.STDEV.S(K2:K20)</f>
-        <v>1.4175836050579562E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>44582</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.40190972222222227</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>90.546599999999998</v>
-      </c>
-      <c r="E5" s="2">
-        <v>92.49</v>
-      </c>
-      <c r="F5">
-        <v>5000</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>9716.9999999999854</v>
-      </c>
-      <c r="H5" s="2">
-        <f>92.49+90.55</f>
-        <v>183.04</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>9533.9599999999846</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="2"/>
-        <v>33160.130000000034</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="3"/>
-        <v>2.0616196345550838E-2</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
@@ -1604,83 +1610,83 @@
         <v>44582</v>
       </c>
       <c r="B6" s="6">
-        <v>0.39230324074074074</v>
+        <v>0.40190972222222227</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>56.091099999999997</v>
+        <v>90.546599999999998</v>
       </c>
       <c r="E6" s="2">
-        <v>56.2</v>
+        <v>92.49</v>
       </c>
       <c r="F6">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
+        <v>9716.9999999999854</v>
+      </c>
+      <c r="H6" s="2">
+        <f>92.49+90.55</f>
+        <v>183.04</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>9533.9599999999846</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>33160.130000000034</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0616196345550838E-2</v>
+      </c>
+      <c r="M6" s="7">
+        <f>M2/M4^2</f>
+        <v>23.60605396988456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.39230324074074074</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>56.091099999999997</v>
+      </c>
+      <c r="E7" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="F7">
+        <v>9000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
         <v>980.10000000004993</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <f>101.16+100.96</f>
         <v>202.12</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>777.98000000004993</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>23626.170000000053</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="4">
         <f t="shared" si="3"/>
         <v>1.5381178331357254E-3</v>
-      </c>
-      <c r="M6" s="7">
-        <f>M2/M4^2</f>
-        <v>45.852571594858155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>44579</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.38677083333333334</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2">
-        <v>94.78</v>
-      </c>
-      <c r="E7" s="2">
-        <v>94.04</v>
-      </c>
-      <c r="F7">
-        <v>1500</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-1109.9999999999923</v>
-      </c>
-      <c r="H7">
-        <f>29*2</f>
-        <v>58</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>-1167.9999999999923</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="2"/>
-        <v>22848.190000000002</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="3"/>
-        <v>-8.2801644690202198E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1688,39 +1694,39 @@
         <v>44579</v>
       </c>
       <c r="B8" s="6">
-        <v>0.39446759259259262</v>
+        <v>0.38677083333333334</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
-        <v>293.60789999999997</v>
+        <v>94.78</v>
       </c>
       <c r="E8" s="2">
-        <v>298.10000000000002</v>
+        <v>94.04</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>4492.1000000000504</v>
+        <v>-1109.9999999999923</v>
       </c>
       <c r="H8">
-        <f>58.72+59.62</f>
-        <v>118.34</v>
+        <f>29*2</f>
+        <v>58</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>4373.7600000000502</v>
+        <v>-1167.9999999999923</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="2"/>
-        <v>24016.189999999995</v>
+        <v>22848.190000000002</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="3"/>
-        <v>1.4672123448507381E-2</v>
+        <v>-8.2801644690202198E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1728,119 +1734,119 @@
         <v>44579</v>
       </c>
       <c r="B9" s="6">
-        <v>0.38696759259259261</v>
+        <v>0.39446759259259262</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>97.742999999999995</v>
+        <v>293.60789999999997</v>
       </c>
       <c r="E9" s="2">
-        <v>98.2</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="F9">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
+        <v>4492.1000000000504</v>
+      </c>
+      <c r="H9">
+        <f>58.72+59.62</f>
+        <v>118.34</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4373.7600000000502</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>24016.189999999995</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4672123448507381E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.38696759259259261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>97.742999999999995</v>
+      </c>
+      <c r="E10" s="2">
+        <v>98.2</v>
+      </c>
+      <c r="F10">
+        <v>3000</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
         <v>1371.0000000000236</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <f>58.65+58.92</f>
         <v>117.57</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>1253.4300000000237</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <f t="shared" si="2"/>
         <v>19642.429999999946</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K10" s="4">
         <f t="shared" si="3"/>
         <v>4.2546843177190211E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>44578</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>0.38532407407407404</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>562.86670000000004</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>565.80930000000001</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>600</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>1765.5599999999822</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <f>67.54+67.9</f>
         <v>135.44</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>1630.1199999999822</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="3">
         <f t="shared" si="2"/>
         <v>18388.999999999924</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K11" s="4">
         <f t="shared" si="3"/>
         <v>4.801735614219556E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>44575</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.57991898148148147</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2">
-        <v>101.05</v>
-      </c>
-      <c r="E11" s="2">
-        <v>100.6</v>
-      </c>
-      <c r="F11">
-        <v>2000</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>-900.00000000000568</v>
-      </c>
-      <c r="H11">
-        <f>40.42+40.24</f>
-        <v>80.66</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>-980.66000000000565</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="2"/>
-        <v>16758.879999999943</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="3"/>
-        <v>-4.8740556660040041E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1848,39 +1854,39 @@
         <v>44575</v>
       </c>
       <c r="B12" s="6">
-        <v>0.5446643518518518</v>
+        <v>0.57991898148148147</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
-        <v>102.2038</v>
+        <v>101.05</v>
       </c>
       <c r="E12" s="2">
-        <v>105.95</v>
+        <v>100.6</v>
       </c>
       <c r="F12">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>8241.6400000000031</v>
+        <v>-900.00000000000568</v>
       </c>
       <c r="H12">
-        <f>29+46.62</f>
-        <v>75.62</v>
+        <f>40.42+40.24</f>
+        <v>80.66</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>8166.0200000000032</v>
+        <v>-980.66000000000565</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="2"/>
-        <v>17739.53999999995</v>
+        <v>16758.879999999943</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" ref="K12:K20" si="4">I12/(E12*F12)</f>
-        <v>3.5033763782230054E-2</v>
+        <f t="shared" si="3"/>
+        <v>-4.8740556660040041E-3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1888,79 +1894,79 @@
         <v>44575</v>
       </c>
       <c r="B13" s="6">
-        <v>0.41636574074074079</v>
+        <v>0.5446643518518518</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>307.92860000000002</v>
+        <v>102.2038</v>
       </c>
       <c r="E13" s="2">
-        <v>315.33929999999998</v>
+        <v>105.95</v>
       </c>
       <c r="F13">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
+        <v>8241.6400000000031</v>
+      </c>
+      <c r="H13">
+        <f>29+46.62</f>
+        <v>75.62</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>8166.0200000000032</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>17739.53999999995</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" ref="K13:K21" si="4">I13/(E13*F13)</f>
+        <v>3.5033763782230054E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.41636574074074079</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
+        <v>307.92860000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>315.33929999999998</v>
+      </c>
+      <c r="F14">
+        <v>700</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
         <v>5187.4899999999743</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <f>43.11+44.15</f>
         <v>87.259999999999991</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>5100.2299999999741</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J14" s="3">
         <f t="shared" si="2"/>
         <v>9573.5199999999459</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K14" s="4">
         <f t="shared" si="4"/>
         <v>2.3105406960511488E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>44574</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.40348379629629627</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2">
-        <v>950</v>
-      </c>
-      <c r="E14" s="2">
-        <v>951</v>
-      </c>
-      <c r="F14">
-        <v>175</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="H14">
-        <f>33.25+33.29</f>
-        <v>66.539999999999992</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>108.46000000000001</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="2"/>
-        <v>4473.2899999999727</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="4"/>
-        <v>6.5170497220970415E-4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1968,79 +1974,79 @@
         <v>44574</v>
       </c>
       <c r="B15" s="6">
-        <v>0.69003472222222229</v>
+        <v>0.40348379629629627</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>178</v>
+        <v>950</v>
       </c>
       <c r="E15" s="2">
-        <v>175.8</v>
+        <v>951</v>
       </c>
       <c r="F15">
-        <v>750</v>
+        <v>175</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="H15">
+        <f>33.25+33.29</f>
+        <v>66.539999999999992</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>108.46000000000001</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>4473.2899999999727</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="4"/>
+        <v>6.5170497220970415E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.69003472222222229</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>178</v>
+      </c>
+      <c r="E16" s="2">
+        <v>175.8</v>
+      </c>
+      <c r="F16">
+        <v>750</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
         <v>-1649.9999999999914</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <f>29*2</f>
         <v>58</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>-1707.9999999999914</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="3">
         <f t="shared" si="2"/>
         <v>4364.8299999999726</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K16" s="4">
         <f t="shared" si="4"/>
         <v>-1.2954114524080329E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>44568</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.39664351851851848</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2">
-        <v>300.25</v>
-      </c>
-      <c r="E16" s="2">
-        <v>300.39999999999998</v>
-      </c>
-      <c r="F16">
-        <v>500</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>74.999999999988631</v>
-      </c>
-      <c r="H16">
-        <f>30.03+30.04</f>
-        <v>60.07</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>14.929999999988631</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="2"/>
-        <v>6072.8299999999645</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="4"/>
-        <v>9.9400798934677967E-5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -2051,36 +2057,36 @@
         <v>0.39664351851851848</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
-        <v>121.75</v>
+        <v>300.25</v>
       </c>
       <c r="E17" s="2">
-        <v>124.3</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="F17">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>2549.9999999999973</v>
+        <v>74.999999999988631</v>
       </c>
       <c r="H17">
-        <f>29+29</f>
-        <v>58</v>
+        <f>30.03+30.04</f>
+        <v>60.07</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>2491.9999999999973</v>
+        <v>14.929999999988631</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="2"/>
-        <v>6057.899999999976</v>
+        <v>6072.8299999999645</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="4"/>
-        <v>2.0048270313757017E-2</v>
+        <v>9.9400798934677967E-5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -2088,138 +2094,171 @@
         <v>44568</v>
       </c>
       <c r="B18" s="6">
-        <v>0.38866898148148149</v>
+        <v>0.39664351851851848</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
-        <v>342.8</v>
+        <v>121.75</v>
       </c>
       <c r="E18" s="2">
-        <v>344.63639999999998</v>
+        <v>124.3</v>
       </c>
       <c r="F18">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
+        <v>2549.9999999999973</v>
+      </c>
+      <c r="H18">
+        <f>29+29</f>
+        <v>58</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>2491.9999999999973</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="2"/>
+        <v>6057.899999999976</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0048270313757017E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.38866898148148149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>342.8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>344.63639999999998</v>
+      </c>
+      <c r="F19">
+        <v>550</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
         <v>1010.019999999983</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <f>37.91+37.71</f>
         <v>75.62</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>934.39999999998304</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J19" s="3">
         <f t="shared" si="2"/>
         <v>3565.8999999999787</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K19" s="4">
         <f t="shared" si="4"/>
         <v>4.9295695141577042E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>44564</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B20" s="6">
         <v>0.38908564814814817</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <f>(250*133.35+500*131.5)/750</f>
         <v>132.11666666666667</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>134.9</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>750</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>2087.4999999999986</v>
-      </c>
-      <c r="H19">
-        <f>29*2</f>
-        <v>58</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>2029.4999999999986</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="2"/>
-        <v>2631.4999999999955</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="4"/>
-        <v>2.0059303187546316E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>44559</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>48.29</v>
-      </c>
-      <c r="E20" s="2">
-        <v>48.62</v>
-      </c>
-      <c r="F20">
-        <v>2000</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>659.99999999999659</v>
       </c>
       <c r="H20">
         <f>29*2</f>
         <v>58</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>2029.4999999999986</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="2"/>
+        <v>2631.4999999999955</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0059303187546316E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>48.29</v>
+      </c>
+      <c r="E21" s="2">
+        <v>48.62</v>
+      </c>
+      <c r="F21">
+        <v>2000</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>659.99999999999659</v>
+      </c>
+      <c r="H21">
+        <f>29*2</f>
+        <v>58</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="1"/>
         <v>601.99999999999659</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J21" s="3">
         <f t="shared" si="2"/>
         <v>601.99999999999659</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K21" s="4">
         <f t="shared" si="4"/>
         <v>6.1908679555738024E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>44558</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="I21" s="3"/>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="G22" s="2"/>
       <c r="I22" s="3"/>
+      <c r="J22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
@@ -2239,7 +2278,14 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
